--- a/historico_tempo.xlsx
+++ b/historico_tempo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,13 +26,27 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,9 +61,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,110 +450,113 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="32.7109375" customWidth="1" min="10" max="10"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="12.42578125" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="9.140625" customWidth="1" style="1" min="4" max="9"/>
+    <col width="32.7109375" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="9.140625" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Data/Hora</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Temperatura (°C)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Umidade (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>06-01-2025 00:49:09</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="5" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>06-01-2025 00:50:06</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="5" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-01-06 00:56:49</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>19</v>
-      </c>
-      <c r="C4" t="n">
-        <v>84</v>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>06-01-2025 20:44:57</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-01-06 00:57:38</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>89</v>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>06-01-2025 20:46:12</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-06 00:59:37</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
-        <v>89</v>
+          <t>06-01-2025 20:50:36</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-06 01:40:07</t>
+          <t>06-01-2025 20:52:03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
